--- a/Box_Layout/Parts_List.xlsx
+++ b/Box_Layout/Parts_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUNA\Test_Box\AUNA_Test_Box\Box_Layout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\AUNA_Test_Box\Box_Layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6582B4D-7924-4FB1-AD0B-C19E22C054FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9944F824-D41D-4B23-9B78-EFBADD2EB32D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7D028F7-778D-4904-9130-0F2E5E75726E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{E7D028F7-778D-4904-9130-0F2E5E75726E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -601,16 +598,16 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
